--- a/target/test-classes/TestData/Labsquire_microgen_staging.xlsx
+++ b/target/test-classes/TestData/Labsquire_microgen_staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith Kumar A\eclipse-workspace\EMR_Flow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769655DB-EE80-4FB4-85D1-B6958A29BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6ECE8-E454-4D0A-808D-042EB14799CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A47383-B4B7-4317-B82F-C5383DC7B664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{45A47383-B4B7-4317-B82F-C5383DC7B664}"/>
   </bookViews>
   <sheets>
     <sheet name="Addcase" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D5136C-B68E-490F-8657-B06070958366}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3:P21"/>
     </sheetView>
   </sheetViews>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945595E0-E04D-4B4F-B3CE-C5D38816E13A}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
